--- a/src/data/raw/INFY.NS_data.xlsx
+++ b/src/data/raw/INFY.NS_data.xlsx
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>1397.19775390625</v>
+        <v>1397.197631835938</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.802680942014</v>
+        <v>1418.802556984123</v>
       </c>
       <c r="D8" t="n">
-        <v>1390.312667268479</v>
+        <v>1390.312545799703</v>
       </c>
       <c r="E8" t="n">
-        <v>1396.010670003186</v>
+        <v>1396.010548036587</v>
       </c>
       <c r="F8" t="n">
         <v>6173092</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>1467.615478515625</v>
+        <v>1467.615600585938</v>
       </c>
       <c r="C13" t="n">
-        <v>1473.740784602056</v>
+        <v>1473.740907181847</v>
       </c>
       <c r="D13" t="n">
-        <v>1462.107363269199</v>
+        <v>1462.107484881368</v>
       </c>
       <c r="E13" t="n">
-        <v>1466.998171749467</v>
+        <v>1466.998293768435</v>
       </c>
       <c r="F13" t="n">
         <v>5843098</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>1470.084716796875</v>
+        <v>1470.084838867188</v>
       </c>
       <c r="C16" t="n">
-        <v>1475.117998954823</v>
+        <v>1475.118121443081</v>
       </c>
       <c r="D16" t="n">
-        <v>1451.186317730339</v>
+        <v>1451.186438231399</v>
       </c>
       <c r="E16" t="n">
-        <v>1457.739044110596</v>
+        <v>1457.73916515577</v>
       </c>
       <c r="F16" t="n">
         <v>4855020</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>1473.788330078125</v>
+        <v>1473.788452148438</v>
       </c>
       <c r="C17" t="n">
-        <v>1489.837726539012</v>
+        <v>1489.837849938657</v>
       </c>
       <c r="D17" t="n">
-        <v>1471.746522718772</v>
+        <v>1471.746644619967</v>
       </c>
       <c r="E17" t="n">
-        <v>1481.480610060516</v>
+        <v>1481.480732767961</v>
       </c>
       <c r="F17" t="n">
         <v>5200802</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>1461.34765625</v>
+        <v>1461.347900390625</v>
       </c>
       <c r="C20" t="n">
-        <v>1466.285878381862</v>
+        <v>1466.286123347493</v>
       </c>
       <c r="D20" t="n">
-        <v>1443.493869909605</v>
+        <v>1443.494111067481</v>
       </c>
       <c r="E20" t="n">
-        <v>1451.850986053226</v>
+        <v>1451.851228607286</v>
       </c>
       <c r="F20" t="n">
         <v>6964719</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>1504.035278320312</v>
+        <v>1504.035400390625</v>
       </c>
       <c r="C23" t="n">
-        <v>1507.074166687417</v>
+        <v>1507.074289004372</v>
       </c>
       <c r="D23" t="n">
-        <v>1473.883347720995</v>
+        <v>1473.88346734412</v>
       </c>
       <c r="E23" t="n">
-        <v>1473.883347720995</v>
+        <v>1473.88346734412</v>
       </c>
       <c r="F23" t="n">
         <v>6916834</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>1510.445556640625</v>
+        <v>1510.445434570312</v>
       </c>
       <c r="C27" t="n">
-        <v>1522.316395658549</v>
+        <v>1522.316272628866</v>
       </c>
       <c r="D27" t="n">
-        <v>1486.703878604777</v>
+        <v>1486.703758453206</v>
       </c>
       <c r="E27" t="n">
-        <v>1486.703878604777</v>
+        <v>1486.703758453206</v>
       </c>
       <c r="F27" t="n">
         <v>7983338</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>1535.611694335938</v>
+        <v>1535.61181640625</v>
       </c>
       <c r="C28" t="n">
-        <v>1538.223278850114</v>
+        <v>1538.223401128029</v>
       </c>
       <c r="D28" t="n">
-        <v>1506.219544083212</v>
+        <v>1506.219663817055</v>
       </c>
       <c r="E28" t="n">
-        <v>1515.858572367337</v>
+        <v>1515.858692867415</v>
       </c>
       <c r="F28" t="n">
         <v>6904911</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>1527.587158203125</v>
+        <v>1527.587036132812</v>
       </c>
       <c r="C29" t="n">
-        <v>1534.947078700905</v>
+        <v>1534.946956042457</v>
       </c>
       <c r="D29" t="n">
-        <v>1516.096092814046</v>
+        <v>1516.09597166199</v>
       </c>
       <c r="E29" t="n">
-        <v>1531.765600970608</v>
+        <v>1531.765478566394</v>
       </c>
       <c r="F29" t="n">
         <v>4786762</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>1488.5556640625</v>
+        <v>1488.555786132812</v>
       </c>
       <c r="C30" t="n">
-        <v>1516.618373512038</v>
+        <v>1516.618497883658</v>
       </c>
       <c r="D30" t="n">
-        <v>1487.178693124516</v>
+        <v>1487.178815081909</v>
       </c>
       <c r="E30" t="n">
-        <v>1516.618373512038</v>
+        <v>1516.618497883658</v>
       </c>
       <c r="F30" t="n">
         <v>4001199</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>1521.176879882812</v>
+        <v>1521.1767578125</v>
       </c>
       <c r="C33" t="n">
-        <v>1533.190076531274</v>
+        <v>1533.189953496935</v>
       </c>
       <c r="D33" t="n">
-        <v>1517.425625102757</v>
+        <v>1517.425503333473</v>
       </c>
       <c r="E33" t="n">
-        <v>1519.467432650614</v>
+        <v>1519.46731071748</v>
       </c>
       <c r="F33" t="n">
         <v>4290289</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>1483.190185546875</v>
+        <v>1483.190063476562</v>
       </c>
       <c r="C37" t="n">
-        <v>1495.72574542377</v>
+        <v>1495.72562232175</v>
       </c>
       <c r="D37" t="n">
-        <v>1477.01734913719</v>
+        <v>1477.017227574917</v>
       </c>
       <c r="E37" t="n">
-        <v>1484.329739744351</v>
+        <v>1484.32961758025</v>
       </c>
       <c r="F37" t="n">
         <v>3656244</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>1472.648803710938</v>
+        <v>1472.648681640625</v>
       </c>
       <c r="C38" t="n">
-        <v>1490.834952825789</v>
+        <v>1490.834829247996</v>
       </c>
       <c r="D38" t="n">
-        <v>1470.227222033189</v>
+        <v>1470.227100163606</v>
       </c>
       <c r="E38" t="n">
-        <v>1490.834952825789</v>
+        <v>1490.834829247996</v>
       </c>
       <c r="F38" t="n">
         <v>4766854</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>1472.601196289062</v>
+        <v>1472.601318359375</v>
       </c>
       <c r="C39" t="n">
-        <v>1490.027563021903</v>
+        <v>1490.027686536762</v>
       </c>
       <c r="D39" t="n">
-        <v>1467.235554409713</v>
+        <v>1467.235676035244</v>
       </c>
       <c r="E39" t="n">
-        <v>1481.480559792331</v>
+        <v>1481.480682598693</v>
       </c>
       <c r="F39" t="n">
         <v>2790986</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>1412.677368164062</v>
+        <v>1412.67724609375</v>
       </c>
       <c r="C41" t="n">
-        <v>1447.29268825481</v>
+        <v>1447.292563193367</v>
       </c>
       <c r="D41" t="n">
-        <v>1406.741948674829</v>
+        <v>1406.741827117399</v>
       </c>
       <c r="E41" t="n">
-        <v>1439.315461276047</v>
+        <v>1439.315336903921</v>
       </c>
       <c r="F41" t="n">
         <v>9679811</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>1420.74951171875</v>
+        <v>1420.749389648438</v>
       </c>
       <c r="C42" t="n">
-        <v>1425.307844244316</v>
+        <v>1425.307721782353</v>
       </c>
       <c r="D42" t="n">
-        <v>1406.931809039461</v>
+        <v>1406.931688156361</v>
       </c>
       <c r="E42" t="n">
-        <v>1417.283203617559</v>
+        <v>1417.28308184507</v>
       </c>
       <c r="F42" t="n">
         <v>5125043</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>1397.482666015625</v>
+        <v>1397.482788085938</v>
       </c>
       <c r="C48" t="n">
-        <v>1400.094250538084</v>
+        <v>1400.094372836519</v>
       </c>
       <c r="D48" t="n">
-        <v>1384.282270153238</v>
+        <v>1384.282391070494</v>
       </c>
       <c r="E48" t="n">
-        <v>1386.513964650834</v>
+        <v>1386.514085763029</v>
       </c>
       <c r="F48" t="n">
         <v>3699580</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>1362.867309570312</v>
+        <v>1362.8671875</v>
       </c>
       <c r="C49" t="n">
-        <v>1403.893000180322</v>
+        <v>1403.89287443539</v>
       </c>
       <c r="D49" t="n">
-        <v>1356.124695961898</v>
+        <v>1356.124574495513</v>
       </c>
       <c r="E49" t="n">
-        <v>1390.502600567496</v>
+        <v>1390.502476021925</v>
       </c>
       <c r="F49" t="n">
         <v>8798403</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>1348.527221679688</v>
+        <v>1348.52734375</v>
       </c>
       <c r="C50" t="n">
-        <v>1375.450259575174</v>
+        <v>1375.450384082593</v>
       </c>
       <c r="D50" t="n">
-        <v>1339.980218161999</v>
+        <v>1339.980339458627</v>
       </c>
       <c r="E50" t="n">
-        <v>1368.470229887627</v>
+        <v>1368.470353763204</v>
       </c>
       <c r="F50" t="n">
         <v>7402784</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>1348.195068359375</v>
+        <v>1348.194946289062</v>
       </c>
       <c r="C51" t="n">
-        <v>1370.227301105618</v>
+        <v>1370.22717704043</v>
       </c>
       <c r="D51" t="n">
-        <v>1345.535953819648</v>
+        <v>1345.535831990101</v>
       </c>
       <c r="E51" t="n">
-        <v>1365.621438354816</v>
+        <v>1365.621314706658</v>
       </c>
       <c r="F51" t="n">
         <v>7556182</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>1333.427734375</v>
+        <v>1333.427490234375</v>
       </c>
       <c r="C52" t="n">
-        <v>1346.438244980898</v>
+        <v>1346.437998458146</v>
       </c>
       <c r="D52" t="n">
-        <v>1328.299508148083</v>
+        <v>1328.299264946398</v>
       </c>
       <c r="E52" t="n">
-        <v>1346.438244980898</v>
+        <v>1346.437998458146</v>
       </c>
       <c r="F52" t="n">
         <v>7323117</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>1349.19189453125</v>
+        <v>1349.192016601562</v>
       </c>
       <c r="C53" t="n">
-        <v>1370.274572018255</v>
+        <v>1370.274695996056</v>
       </c>
       <c r="D53" t="n">
-        <v>1340.360060764363</v>
+        <v>1340.360182035601</v>
       </c>
       <c r="E53" t="n">
-        <v>1358.023844224288</v>
+        <v>1358.023967093685</v>
       </c>
       <c r="F53" t="n">
         <v>9090018</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>1319.324951171875</v>
+        <v>1319.325073242188</v>
       </c>
       <c r="C56" t="n">
-        <v>1336.418958097262</v>
+        <v>1336.419081749194</v>
       </c>
       <c r="D56" t="n">
-        <v>1312.582338292092</v>
+        <v>1312.582459738545</v>
       </c>
       <c r="E56" t="n">
-        <v>1332.382873128768</v>
+        <v>1332.382996407262</v>
       </c>
       <c r="F56" t="n">
         <v>8356487</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>1313.911865234375</v>
+        <v>1313.912109375</v>
       </c>
       <c r="C61" t="n">
-        <v>1319.942227687384</v>
+        <v>1319.942472948523</v>
       </c>
       <c r="D61" t="n">
-        <v>1295.86819167114</v>
+        <v>1295.868432459033</v>
       </c>
       <c r="E61" t="n">
-        <v>1309.590833879035</v>
+        <v>1309.59107721676</v>
       </c>
       <c r="F61" t="n">
         <v>8813966</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>1356.077026367188</v>
+        <v>1356.0771484375</v>
       </c>
       <c r="C62" t="n">
-        <v>1357.976360479359</v>
+        <v>1357.976482720644</v>
       </c>
       <c r="D62" t="n">
-        <v>1323.74093266316</v>
+        <v>1323.741051822667</v>
       </c>
       <c r="E62" t="n">
-        <v>1333.332546744395</v>
+        <v>1333.332666767313</v>
       </c>
       <c r="F62" t="n">
         <v>8711975</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>1339.837646484375</v>
+        <v>1339.837890625</v>
       </c>
       <c r="C63" t="n">
-        <v>1362.77212742381</v>
+        <v>1362.772375743477</v>
       </c>
       <c r="D63" t="n">
-        <v>1334.424591024648</v>
+        <v>1334.424834178925</v>
       </c>
       <c r="E63" t="n">
-        <v>1362.77212742381</v>
+        <v>1362.772375743477</v>
       </c>
       <c r="F63" t="n">
         <v>5242764</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>1355.744750976562</v>
+        <v>1355.744873046875</v>
       </c>
       <c r="C66" t="n">
-        <v>1361.822643701327</v>
+        <v>1361.822766318888</v>
       </c>
       <c r="D66" t="n">
-        <v>1343.778968505842</v>
+        <v>1343.779089498764</v>
       </c>
       <c r="E66" t="n">
-        <v>1352.278442819566</v>
+        <v>1352.278564577775</v>
       </c>
       <c r="F66" t="n">
         <v>4993788</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>1170.1796875</v>
+        <v>1170.179809570312</v>
       </c>
       <c r="C72" t="n">
-        <v>1191.214835750342</v>
+        <v>1191.214960014991</v>
       </c>
       <c r="D72" t="n">
-        <v>1167.520689327371</v>
+        <v>1167.520811120303</v>
       </c>
       <c r="E72" t="n">
-        <v>1191.214835750342</v>
+        <v>1191.214960014991</v>
       </c>
       <c r="F72" t="n">
         <v>11307230</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>1161.82275390625</v>
+        <v>1161.822875976562</v>
       </c>
       <c r="C73" t="n">
-        <v>1175.545397137649</v>
+        <v>1175.545520649771</v>
       </c>
       <c r="D73" t="n">
-        <v>1159.9234197053</v>
+        <v>1159.923541576054</v>
       </c>
       <c r="E73" t="n">
-        <v>1168.755254184021</v>
+        <v>1168.755376982717</v>
       </c>
       <c r="F73" t="n">
         <v>8621249</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>1164.576782226562</v>
+        <v>1164.576904296875</v>
       </c>
       <c r="C75" t="n">
-        <v>1168.090504038981</v>
+        <v>1168.0906264776</v>
       </c>
       <c r="D75" t="n">
-        <v>1156.694499121528</v>
+        <v>1156.694620365624</v>
       </c>
       <c r="E75" t="n">
-        <v>1166.191169886072</v>
+        <v>1166.191292125604</v>
       </c>
       <c r="F75" t="n">
         <v>8313774</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>1163.247192382812</v>
+        <v>1163.247314453125</v>
       </c>
       <c r="C76" t="n">
-        <v>1173.313639924575</v>
+        <v>1173.313763051254</v>
       </c>
       <c r="D76" t="n">
-        <v>1153.84546540539</v>
+        <v>1153.845586489092</v>
       </c>
       <c r="E76" t="n">
-        <v>1164.244273229323</v>
+        <v>1164.244395404268</v>
       </c>
       <c r="F76" t="n">
         <v>6808576</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>1165.763793945312</v>
+        <v>1165.763916015625</v>
       </c>
       <c r="C77" t="n">
-        <v>1170.939432821305</v>
+        <v>1170.939555433573</v>
       </c>
       <c r="D77" t="n">
-        <v>1159.116124821428</v>
+        <v>1159.116246195645</v>
       </c>
       <c r="E77" t="n">
-        <v>1166.191097732817</v>
+        <v>1166.191219847873</v>
       </c>
       <c r="F77" t="n">
         <v>5680192</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>1183.522583007812</v>
+        <v>1183.522705078125</v>
       </c>
       <c r="C78" t="n">
-        <v>1184.994613333069</v>
+        <v>1184.994735555209</v>
       </c>
       <c r="D78" t="n">
-        <v>1163.722047833395</v>
+        <v>1163.72216786145</v>
       </c>
       <c r="E78" t="n">
-        <v>1168.090493159165</v>
+        <v>1168.090613637788</v>
       </c>
       <c r="F78" t="n">
         <v>8020704</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>1213.152221679688</v>
+        <v>1213.152099609375</v>
       </c>
       <c r="C80" t="n">
-        <v>1215.336502436246</v>
+        <v>1215.336380146146</v>
       </c>
       <c r="D80" t="n">
-        <v>1191.40493727212</v>
+        <v>1191.404817390072</v>
       </c>
       <c r="E80" t="n">
-        <v>1191.40493727212</v>
+        <v>1191.404817390072</v>
       </c>
       <c r="F80" t="n">
         <v>8886401</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>1182.525390625</v>
+        <v>1182.525512695312</v>
       </c>
       <c r="C88" t="n">
-        <v>1192.781841363878</v>
+        <v>1192.781964492948</v>
       </c>
       <c r="D88" t="n">
-        <v>1176.685030878355</v>
+        <v>1176.685152345776</v>
       </c>
       <c r="E88" t="n">
-        <v>1190.2652004401</v>
+        <v>1190.265323309382</v>
       </c>
       <c r="F88" t="n">
         <v>8292212</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>1195.013671875</v>
+        <v>1195.013549804688</v>
       </c>
       <c r="C89" t="n">
-        <v>1205.032706986983</v>
+        <v>1205.032583893229</v>
       </c>
       <c r="D89" t="n">
-        <v>1182.952945068478</v>
+        <v>1182.952824230165</v>
       </c>
       <c r="E89" t="n">
-        <v>1186.989030580463</v>
+        <v>1186.988909329865</v>
       </c>
       <c r="F89" t="n">
         <v>5534710</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>1200.6640625</v>
+        <v>1200.664184570312</v>
       </c>
       <c r="C90" t="n">
-        <v>1209.82825652302</v>
+        <v>1209.828379525047</v>
       </c>
       <c r="D90" t="n">
-        <v>1199.192032245177</v>
+        <v>1199.192154165829</v>
       </c>
       <c r="E90" t="n">
-        <v>1201.328783045059</v>
+        <v>1201.328905182953</v>
       </c>
       <c r="F90" t="n">
         <v>5236469</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>1184.140014648438</v>
+        <v>1184.139892578125</v>
       </c>
       <c r="C91" t="n">
-        <v>1197.482768799576</v>
+        <v>1197.482645353789</v>
       </c>
       <c r="D91" t="n">
-        <v>1179.913926196265</v>
+        <v>1179.91380456161</v>
       </c>
       <c r="E91" t="n">
-        <v>1197.150408476098</v>
+        <v>1197.150285064574</v>
       </c>
       <c r="F91" t="n">
         <v>10465667</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>1183.285278320312</v>
+        <v>1183.28515625</v>
       </c>
       <c r="C92" t="n">
-        <v>1196.248258206246</v>
+        <v>1196.248134798644</v>
       </c>
       <c r="D92" t="n">
-        <v>1179.913913540506</v>
+        <v>1179.913791817991</v>
       </c>
       <c r="E92" t="n">
-        <v>1195.251061320341</v>
+        <v>1195.250938015612</v>
       </c>
       <c r="F92" t="n">
         <v>6948732</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>1205.032592773438</v>
+        <v>1205.032470703125</v>
       </c>
       <c r="C93" t="n">
-        <v>1209.211151151504</v>
+        <v>1209.211028657902</v>
       </c>
       <c r="D93" t="n">
-        <v>1189.742975821251</v>
+        <v>1189.742855299783</v>
       </c>
       <c r="E93" t="n">
-        <v>1192.829393861413</v>
+        <v>1192.82927302729</v>
       </c>
       <c r="F93" t="n">
         <v>11094136</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>1227.729614257812</v>
+        <v>1227.729736328125</v>
       </c>
       <c r="C94" t="n">
-        <v>1230.388612454351</v>
+        <v>1230.388734789042</v>
       </c>
       <c r="D94" t="n">
-        <v>1206.314575811346</v>
+        <v>1206.31469575241</v>
       </c>
       <c r="E94" t="n">
-        <v>1208.878630487678</v>
+        <v>1208.878750683681</v>
       </c>
       <c r="F94" t="n">
         <v>7625947</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>1257.216674804688</v>
+        <v>1257.216796875</v>
       </c>
       <c r="C100" t="n">
-        <v>1259.638372102273</v>
+        <v>1259.638494407722</v>
       </c>
       <c r="D100" t="n">
-        <v>1243.256615830546</v>
+        <v>1243.256736545397</v>
       </c>
       <c r="E100" t="n">
-        <v>1248.812144772249</v>
+        <v>1248.812266026518</v>
       </c>
       <c r="F100" t="n">
         <v>6274719</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>1251.9462890625</v>
+        <v>1251.946166992188</v>
       </c>
       <c r="C101" t="n">
-        <v>1264.101959403983</v>
+        <v>1264.101836148438</v>
       </c>
       <c r="D101" t="n">
-        <v>1248.005147082476</v>
+        <v>1248.005025396442</v>
       </c>
       <c r="E101" t="n">
-        <v>1253.418203634973</v>
+        <v>1253.418081421142</v>
       </c>
       <c r="F101" t="n">
         <v>17800782</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>1255.491821289062</v>
+        <v>1255.491943359375</v>
       </c>
       <c r="C104" t="n">
-        <v>1260.255809952972</v>
+        <v>1260.255932486482</v>
       </c>
       <c r="D104" t="n">
-        <v>1248.562361871685</v>
+        <v>1248.562483268252</v>
       </c>
       <c r="E104" t="n">
-        <v>1255.010605566069</v>
+        <v>1255.010727589594</v>
       </c>
       <c r="F104" t="n">
         <v>5002553</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>1230.949829101562</v>
+        <v>1230.949951171875</v>
       </c>
       <c r="C105" t="n">
-        <v>1240.189147558864</v>
+        <v>1240.189270545418</v>
       </c>
       <c r="D105" t="n">
-        <v>1225.17524038021</v>
+        <v>1225.175361877871</v>
       </c>
       <c r="E105" t="n">
-        <v>1240.189147558864</v>
+        <v>1240.189270545418</v>
       </c>
       <c r="F105" t="n">
         <v>10008100</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>1240.52587890625</v>
+        <v>1240.526000976562</v>
       </c>
       <c r="C106" t="n">
-        <v>1245.386204363676</v>
+        <v>1245.386326912255</v>
       </c>
       <c r="D106" t="n">
-        <v>1234.31824350573</v>
+        <v>1234.318364965198</v>
       </c>
       <c r="E106" t="n">
-        <v>1242.017694537345</v>
+        <v>1242.017816754455</v>
       </c>
       <c r="F106" t="n">
         <v>5397578</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>1218.39013671875</v>
+        <v>1218.390014648438</v>
       </c>
       <c r="C108" t="n">
-        <v>1234.318425381138</v>
+        <v>1234.318301714972</v>
       </c>
       <c r="D108" t="n">
-        <v>1216.513442246985</v>
+        <v>1216.513320364698</v>
       </c>
       <c r="E108" t="n">
-        <v>1234.318425381138</v>
+        <v>1234.318301714972</v>
       </c>
       <c r="F108" t="n">
         <v>5339073</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>1243.413330078125</v>
+        <v>1243.413208007812</v>
       </c>
       <c r="C109" t="n">
-        <v>1247.022448205003</v>
+        <v>1247.02232578037</v>
       </c>
       <c r="D109" t="n">
-        <v>1225.175300137363</v>
+        <v>1225.175179857543</v>
       </c>
       <c r="E109" t="n">
-        <v>1225.656515887613</v>
+        <v>1225.65639556055</v>
       </c>
       <c r="F109" t="n">
         <v>4785588</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>1251.545776367188</v>
+        <v>1251.5458984375</v>
       </c>
       <c r="C111" t="n">
-        <v>1257.609023504325</v>
+        <v>1257.609146166021</v>
       </c>
       <c r="D111" t="n">
-        <v>1244.616200016361</v>
+        <v>1244.616321410793</v>
       </c>
       <c r="E111" t="n">
-        <v>1257.272196021868</v>
+        <v>1257.27231865071</v>
       </c>
       <c r="F111" t="n">
         <v>3457981</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>1233.404052734375</v>
+        <v>1233.404174804688</v>
       </c>
       <c r="C117" t="n">
-        <v>1240.959116003589</v>
+        <v>1240.959238821628</v>
       </c>
       <c r="D117" t="n">
-        <v>1225.656432687543</v>
+        <v>1225.656553991072</v>
       </c>
       <c r="E117" t="n">
-        <v>1240.959116003589</v>
+        <v>1240.959238821628</v>
       </c>
       <c r="F117" t="n">
         <v>6676607</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>1217.475708007812</v>
+        <v>1217.475830078125</v>
       </c>
       <c r="C118" t="n">
-        <v>1231.286574953571</v>
+        <v>1231.286698408631</v>
       </c>
       <c r="D118" t="n">
-        <v>1215.887672717899</v>
+        <v>1215.887794628987</v>
       </c>
       <c r="E118" t="n">
-        <v>1228.495500426495</v>
+        <v>1228.495623601708</v>
       </c>
       <c r="F118" t="n">
         <v>7239467</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>1231.09423828125</v>
+        <v>1231.094116210938</v>
       </c>
       <c r="C120" t="n">
-        <v>1233.837144473741</v>
+        <v>1233.837022131453</v>
       </c>
       <c r="D120" t="n">
-        <v>1226.33013201442</v>
+        <v>1226.330010416497</v>
       </c>
       <c r="E120" t="n">
-        <v>1231.912281533844</v>
+        <v>1231.912159382418</v>
       </c>
       <c r="F120" t="n">
         <v>3240024</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>1285.3271484375</v>
+        <v>1285.327270507812</v>
       </c>
       <c r="C122" t="n">
-        <v>1288.599438729334</v>
+        <v>1288.599561110423</v>
       </c>
       <c r="D122" t="n">
-        <v>1255.443606154386</v>
+        <v>1255.443725386593</v>
       </c>
       <c r="E122" t="n">
-        <v>1259.05272394296</v>
+        <v>1259.052843517933</v>
       </c>
       <c r="F122" t="n">
         <v>12821692</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>1283.594848632812</v>
+        <v>1283.5947265625</v>
       </c>
       <c r="C123" t="n">
-        <v>1295.432803114134</v>
+        <v>1295.432679918028</v>
       </c>
       <c r="D123" t="n">
-        <v>1278.542083241766</v>
+        <v>1278.541961651973</v>
       </c>
       <c r="E123" t="n">
-        <v>1280.033899065229</v>
+        <v>1280.033777333564</v>
       </c>
       <c r="F123" t="n">
         <v>7732412</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>1293.411743164062</v>
+        <v>1293.41162109375</v>
       </c>
       <c r="C126" t="n">
-        <v>1296.828304569312</v>
+        <v>1296.828182176549</v>
       </c>
       <c r="D126" t="n">
-        <v>1286.915330404368</v>
+        <v>1286.915208947177</v>
       </c>
       <c r="E126" t="n">
-        <v>1292.112484108987</v>
+        <v>1292.112362161296</v>
       </c>
       <c r="F126" t="n">
         <v>5963897</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>1313.815307617188</v>
+        <v>1313.815185546875</v>
       </c>
       <c r="C131" t="n">
-        <v>1325.07582743313</v>
+        <v>1325.075704316571</v>
       </c>
       <c r="D131" t="n">
-        <v>1280.852026472468</v>
+        <v>1280.851907464868</v>
       </c>
       <c r="E131" t="n">
-        <v>1284.749921309587</v>
+        <v>1284.749801939822</v>
       </c>
       <c r="F131" t="n">
         <v>9977644</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>1419.77880859375</v>
+        <v>1419.778930664062</v>
       </c>
       <c r="C134" t="n">
-        <v>1422.425495044987</v>
+        <v>1422.425617342858</v>
       </c>
       <c r="D134" t="n">
-        <v>1375.314523206683</v>
+        <v>1375.314641454027</v>
       </c>
       <c r="E134" t="n">
-        <v>1380.126680390751</v>
+        <v>1380.126799051837</v>
       </c>
       <c r="F134" t="n">
         <v>16743977</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>1286.385986328125</v>
+        <v>1286.385864257812</v>
       </c>
       <c r="C138" t="n">
-        <v>1299.186372937798</v>
+        <v>1299.186249652806</v>
       </c>
       <c r="D138" t="n">
-        <v>1284.124295682322</v>
+        <v>1284.12417382663</v>
       </c>
       <c r="E138" t="n">
-        <v>1290.620708645302</v>
+        <v>1290.620586173139</v>
       </c>
       <c r="F138" t="n">
         <v>8859789</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>1298.175659179688</v>
+        <v>1298.175537109375</v>
       </c>
       <c r="C140" t="n">
-        <v>1299.282478862247</v>
+        <v>1299.282356687858</v>
       </c>
       <c r="D140" t="n">
-        <v>1289.080728821376</v>
+        <v>1289.08060760628</v>
       </c>
       <c r="E140" t="n">
-        <v>1292.54545860148</v>
+        <v>1292.545337060587</v>
       </c>
       <c r="F140" t="n">
         <v>5528885</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>1313.911254882812</v>
+        <v>1313.911499023438</v>
       </c>
       <c r="C144" t="n">
-        <v>1317.568541070152</v>
+        <v>1317.568785890345</v>
       </c>
       <c r="D144" t="n">
-        <v>1306.019364669245</v>
+        <v>1306.019607343461</v>
       </c>
       <c r="E144" t="n">
-        <v>1310.831521502956</v>
+        <v>1310.83176507133</v>
       </c>
       <c r="F144" t="n">
         <v>6064652</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>1340.6669921875</v>
+        <v>1340.667114257812</v>
       </c>
       <c r="C148" t="n">
-        <v>1342.591855062141</v>
+        <v>1342.591977307716</v>
       </c>
       <c r="D148" t="n">
-        <v>1325.268089190371</v>
+        <v>1325.268209858584</v>
       </c>
       <c r="E148" t="n">
-        <v>1335.758615354027</v>
+        <v>1335.758736977422</v>
       </c>
       <c r="F148" t="n">
         <v>3729093</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>1337.972290039062</v>
+        <v>1337.97216796875</v>
       </c>
       <c r="C149" t="n">
-        <v>1341.196529709916</v>
+        <v>1341.196407345439</v>
       </c>
       <c r="D149" t="n">
-        <v>1332.390257555413</v>
+        <v>1332.390135994379</v>
       </c>
       <c r="E149" t="n">
-        <v>1340.522757136226</v>
+        <v>1340.522634833221</v>
       </c>
       <c r="F149" t="n">
         <v>4161877</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>1336.91357421875</v>
+        <v>1336.913452148438</v>
       </c>
       <c r="C151" t="n">
-        <v>1343.361935764478</v>
+        <v>1343.361813105382</v>
       </c>
       <c r="D151" t="n">
-        <v>1333.545063966065</v>
+        <v>1333.544942203323</v>
       </c>
       <c r="E151" t="n">
-        <v>1339.319652970668</v>
+        <v>1339.319530680662</v>
       </c>
       <c r="F151" t="n">
         <v>3873025</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>1320.3115234375</v>
+        <v>1320.311645507812</v>
       </c>
       <c r="C152" t="n">
-        <v>1344.372308999594</v>
+        <v>1344.372433294463</v>
       </c>
       <c r="D152" t="n">
-        <v>1315.691923100161</v>
+        <v>1315.692044743365</v>
       </c>
       <c r="E152" t="n">
-        <v>1339.704540097409</v>
+        <v>1339.704663960716</v>
       </c>
       <c r="F152" t="n">
         <v>5783517</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>1341.196411132812</v>
+        <v>1341.196533203125</v>
       </c>
       <c r="C153" t="n">
-        <v>1342.591889759269</v>
+        <v>1342.592011956592</v>
       </c>
       <c r="D153" t="n">
-        <v>1314.296381273932</v>
+        <v>1314.296500895912</v>
       </c>
       <c r="E153" t="n">
-        <v>1320.311577912638</v>
+        <v>1320.311698082097</v>
       </c>
       <c r="F153" t="n">
         <v>4304135</v>
@@ -3701,16 +3701,16 @@
         <v>45168</v>
       </c>
       <c r="B164" t="n">
-        <v>1381.233642578125</v>
+        <v>1381.233520507812</v>
       </c>
       <c r="C164" t="n">
-        <v>1382.677289882324</v>
+        <v>1382.677167684426</v>
       </c>
       <c r="D164" t="n">
-        <v>1370.502507453378</v>
+        <v>1370.50238633146</v>
       </c>
       <c r="E164" t="n">
-        <v>1373.389802061777</v>
+        <v>1373.389680684686</v>
       </c>
       <c r="F164" t="n">
         <v>3070887</v>
@@ -3721,16 +3721,16 @@
         <v>45169</v>
       </c>
       <c r="B165" t="n">
-        <v>1381.522216796875</v>
+        <v>1381.522094726562</v>
       </c>
       <c r="C165" t="n">
-        <v>1390.617264745974</v>
+        <v>1390.617141872029</v>
       </c>
       <c r="D165" t="n">
-        <v>1374.977753243241</v>
+        <v>1374.977631751193</v>
       </c>
       <c r="E165" t="n">
-        <v>1381.233557844334</v>
+        <v>1381.233435799528</v>
       </c>
       <c r="F165" t="n">
         <v>9792735</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>1389.606689453125</v>
+        <v>1389.606567382812</v>
       </c>
       <c r="C166" t="n">
-        <v>1391.675940662591</v>
+        <v>1391.675818410505</v>
       </c>
       <c r="D166" t="n">
-        <v>1374.544613071498</v>
+        <v>1374.544492324317</v>
       </c>
       <c r="E166" t="n">
-        <v>1377.191299680642</v>
+        <v>1377.191178700962</v>
       </c>
       <c r="F166" t="n">
         <v>3582133</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>1423.33984375</v>
+        <v>1423.339965820312</v>
       </c>
       <c r="C168" t="n">
-        <v>1424.446663374585</v>
+        <v>1424.446785539822</v>
       </c>
       <c r="D168" t="n">
-        <v>1401.781356547905</v>
+        <v>1401.781476769291</v>
       </c>
       <c r="E168" t="n">
-        <v>1409.962023578909</v>
+        <v>1409.962144501896</v>
       </c>
       <c r="F168" t="n">
         <v>5496840</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>1411.117065429688</v>
+        <v>1411.116943359375</v>
       </c>
       <c r="C170" t="n">
-        <v>1418.046642951685</v>
+        <v>1418.046520281921</v>
       </c>
       <c r="D170" t="n">
-        <v>1407.123068558762</v>
+        <v>1407.122946833954</v>
       </c>
       <c r="E170" t="n">
-        <v>1415.351787667966</v>
+        <v>1415.351665231324</v>
       </c>
       <c r="F170" t="n">
         <v>4411743</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>1414.389282226562</v>
+        <v>1414.389404296875</v>
       </c>
       <c r="C171" t="n">
-        <v>1419.345827854941</v>
+        <v>1419.345950353033</v>
       </c>
       <c r="D171" t="n">
-        <v>1405.342402800331</v>
+        <v>1405.342524089844</v>
       </c>
       <c r="E171" t="n">
-        <v>1408.518473684154</v>
+        <v>1408.51859524778</v>
       </c>
       <c r="F171" t="n">
         <v>3125838</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>1420.981811523438</v>
+        <v>1420.982055664062</v>
       </c>
       <c r="C172" t="n">
-        <v>1422.521795770372</v>
+        <v>1422.522040175584</v>
       </c>
       <c r="D172" t="n">
-        <v>1409.480803141575</v>
+        <v>1409.481045306198</v>
       </c>
       <c r="E172" t="n">
-        <v>1414.389179846846</v>
+        <v>1414.389422854784</v>
       </c>
       <c r="F172" t="n">
         <v>4182226</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>1444.705932617188</v>
+        <v>1444.705810546875</v>
       </c>
       <c r="C173" t="n">
-        <v>1447.497007524837</v>
+        <v>1447.496885218693</v>
       </c>
       <c r="D173" t="n">
-        <v>1421.607576114132</v>
+        <v>1421.607455995513</v>
       </c>
       <c r="E173" t="n">
-        <v>1426.804729824182</v>
+        <v>1426.804609266431</v>
       </c>
       <c r="F173" t="n">
         <v>6793161</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>1450.3359375</v>
+        <v>1450.336181640625</v>
       </c>
       <c r="C175" t="n">
-        <v>1455.725647276395</v>
+        <v>1455.72589232429</v>
       </c>
       <c r="D175" t="n">
-        <v>1442.82904314168</v>
+        <v>1442.82928601864</v>
       </c>
       <c r="E175" t="n">
-        <v>1448.459243281495</v>
+        <v>1448.459487106209</v>
       </c>
       <c r="F175" t="n">
         <v>6444213</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>1445.33154296875</v>
+        <v>1445.331420898438</v>
       </c>
       <c r="C179" t="n">
-        <v>1448.026398233036</v>
+        <v>1448.026275935121</v>
       </c>
       <c r="D179" t="n">
-        <v>1420.548931194856</v>
+        <v>1420.548811217642</v>
       </c>
       <c r="E179" t="n">
-        <v>1430.70263077944</v>
+        <v>1430.702509944662</v>
       </c>
       <c r="F179" t="n">
         <v>6779195</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>1418.768310546875</v>
+        <v>1418.768432617188</v>
       </c>
       <c r="C181" t="n">
-        <v>1433.878436945742</v>
+        <v>1433.878560316125</v>
       </c>
       <c r="D181" t="n">
-        <v>1416.266012335409</v>
+        <v>1416.266134190425</v>
       </c>
       <c r="E181" t="n">
-        <v>1433.878436945742</v>
+        <v>1433.878560316125</v>
       </c>
       <c r="F181" t="n">
         <v>4217863</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>1385.3720703125</v>
+        <v>1385.371826171875</v>
       </c>
       <c r="C184" t="n">
-        <v>1417.276700213686</v>
+        <v>1417.276450450589</v>
       </c>
       <c r="D184" t="n">
-        <v>1381.08929683868</v>
+        <v>1381.089053452798</v>
       </c>
       <c r="E184" t="n">
-        <v>1412.753318848431</v>
+        <v>1412.753069882478</v>
       </c>
       <c r="F184" t="n">
         <v>5814602</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>1381.522216796875</v>
+        <v>1381.522094726562</v>
       </c>
       <c r="C185" t="n">
-        <v>1392.445908049309</v>
+        <v>1392.445785013787</v>
       </c>
       <c r="D185" t="n">
-        <v>1362.802971561175</v>
+        <v>1362.802851144882</v>
       </c>
       <c r="E185" t="n">
-        <v>1378.298094845482</v>
+        <v>1378.29797306005</v>
       </c>
       <c r="F185" t="n">
         <v>6068968</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>1438.9794921875</v>
+        <v>1438.979370117188</v>
       </c>
       <c r="C191" t="n">
-        <v>1440.759966979824</v>
+        <v>1440.759844758472</v>
       </c>
       <c r="D191" t="n">
-        <v>1413.908104419008</v>
+        <v>1413.907984475531</v>
       </c>
       <c r="E191" t="n">
-        <v>1428.152137726229</v>
+        <v>1428.152016574413</v>
       </c>
       <c r="F191" t="n">
         <v>5688951</v>
@@ -4281,16 +4281,16 @@
         <v>45211</v>
       </c>
       <c r="B193" t="n">
-        <v>1410.443237304688</v>
+        <v>1410.443359375</v>
       </c>
       <c r="C193" t="n">
-        <v>1447.881842808476</v>
+        <v>1447.881968119005</v>
       </c>
       <c r="D193" t="n">
-        <v>1397.45041321488</v>
+        <v>1397.450534160696</v>
       </c>
       <c r="E193" t="n">
-        <v>1435.851450132728</v>
+        <v>1435.851574402057</v>
       </c>
       <c r="F193" t="n">
         <v>11081662</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>1377.383911132812</v>
+        <v>1377.3837890625</v>
       </c>
       <c r="C194" t="n">
-        <v>1383.976543633089</v>
+        <v>1383.976420978506</v>
       </c>
       <c r="D194" t="n">
-        <v>1347.404145400782</v>
+        <v>1347.404025987418</v>
       </c>
       <c r="E194" t="n">
-        <v>1352.216303062927</v>
+        <v>1352.216183223088</v>
       </c>
       <c r="F194" t="n">
         <v>17973439</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>1386.430786132812</v>
+        <v>1386.4306640625</v>
       </c>
       <c r="C197" t="n">
-        <v>1399.375443204492</v>
+        <v>1399.375319994448</v>
       </c>
       <c r="D197" t="n">
-        <v>1384.313366278364</v>
+        <v>1384.313244394483</v>
       </c>
       <c r="E197" t="n">
-        <v>1387.826264856174</v>
+        <v>1387.826142662994</v>
       </c>
       <c r="F197" t="n">
         <v>4264837</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>1355.72900390625</v>
+        <v>1355.729125976562</v>
       </c>
       <c r="C200" t="n">
-        <v>1378.538580904084</v>
+        <v>1378.538705028179</v>
       </c>
       <c r="D200" t="n">
-        <v>1352.456713676424</v>
+        <v>1352.456835452099</v>
       </c>
       <c r="E200" t="n">
-        <v>1372.042169007755</v>
+        <v>1372.042292546911</v>
       </c>
       <c r="F200" t="n">
         <v>2636516</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>1345.687622070312</v>
+        <v>1345.687744140625</v>
       </c>
       <c r="C203" t="n">
-        <v>1350.220878423414</v>
+        <v>1350.221000904948</v>
       </c>
       <c r="D203" t="n">
-        <v>1329.407028033549</v>
+        <v>1329.407148627013</v>
       </c>
       <c r="E203" t="n">
-        <v>1329.407028033549</v>
+        <v>1329.407148627013</v>
       </c>
       <c r="F203" t="n">
         <v>4634358</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>1342.470581054688</v>
+        <v>1342.470703125</v>
       </c>
       <c r="C204" t="n">
-        <v>1345.687642479411</v>
+        <v>1345.68776484225</v>
       </c>
       <c r="D204" t="n">
-        <v>1328.870811789124</v>
+        <v>1328.870932622815</v>
       </c>
       <c r="E204" t="n">
-        <v>1345.687642479411</v>
+        <v>1345.68776484225</v>
       </c>
       <c r="F204" t="n">
         <v>2667696</v>
@@ -4521,16 +4521,16 @@
         <v>45230</v>
       </c>
       <c r="B205" t="n">
-        <v>1334.037841796875</v>
+        <v>1334.037719726562</v>
       </c>
       <c r="C205" t="n">
-        <v>1346.467673848503</v>
+        <v>1346.467550640806</v>
       </c>
       <c r="D205" t="n">
-        <v>1328.773418538719</v>
+        <v>1328.773296950124</v>
       </c>
       <c r="E205" t="n">
-        <v>1345.29773589948</v>
+        <v>1345.297612798837</v>
       </c>
       <c r="F205" t="n">
         <v>3451595</v>
@@ -4561,16 +4561,16 @@
         <v>45232</v>
       </c>
       <c r="B207" t="n">
-        <v>1335.743896484375</v>
+        <v>1335.743774414062</v>
       </c>
       <c r="C207" t="n">
-        <v>1341.739486330696</v>
+        <v>1341.739363712462</v>
       </c>
       <c r="D207" t="n">
-        <v>1327.457341787584</v>
+        <v>1327.457220474559</v>
       </c>
       <c r="E207" t="n">
-        <v>1335.597639365201</v>
+        <v>1335.597517308254</v>
       </c>
       <c r="F207" t="n">
         <v>3758060</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>1369.036254882812</v>
+        <v>1369.036376953125</v>
       </c>
       <c r="C210" t="n">
-        <v>1370.596053008508</v>
+        <v>1370.5961752179</v>
       </c>
       <c r="D210" t="n">
-        <v>1359.823485225324</v>
+        <v>1359.823606474179</v>
       </c>
       <c r="E210" t="n">
-        <v>1364.844185852848</v>
+        <v>1364.844307549374</v>
       </c>
       <c r="F210" t="n">
         <v>2272209</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>1356.0703125</v>
+        <v>1356.070190429688</v>
       </c>
       <c r="C211" t="n">
-        <v>1369.718755616463</v>
+        <v>1369.718632317549</v>
       </c>
       <c r="D211" t="n">
-        <v>1351.634520885158</v>
+        <v>1351.634399214145</v>
       </c>
       <c r="E211" t="n">
-        <v>1369.718755616463</v>
+        <v>1369.718632317549</v>
       </c>
       <c r="F211" t="n">
         <v>3550635</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>1401.451416015625</v>
+        <v>1401.451293945312</v>
       </c>
       <c r="C217" t="n">
-        <v>1414.563622530126</v>
+        <v>1414.563499317704</v>
       </c>
       <c r="D217" t="n">
-        <v>1399.014194060887</v>
+        <v>1399.014072202863</v>
       </c>
       <c r="E217" t="n">
-        <v>1404.863526752259</v>
+        <v>1404.863404384742</v>
       </c>
       <c r="F217" t="n">
         <v>4901251</v>
@@ -4801,16 +4801,16 @@
         <v>45251</v>
       </c>
       <c r="B219" t="n">
-        <v>1402.864868164062</v>
+        <v>1402.864990234375</v>
       </c>
       <c r="C219" t="n">
-        <v>1413.588644084705</v>
+        <v>1413.588767088147</v>
       </c>
       <c r="D219" t="n">
-        <v>1400.671368543931</v>
+        <v>1400.671490423376</v>
       </c>
       <c r="E219" t="n">
-        <v>1405.789534324238</v>
+        <v>1405.78965664904</v>
       </c>
       <c r="F219" t="n">
         <v>3793135</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>1406.472045898438</v>
+        <v>1406.471923828125</v>
       </c>
       <c r="C223" t="n">
-        <v>1408.71433777509</v>
+        <v>1408.714215510165</v>
       </c>
       <c r="D223" t="n">
-        <v>1391.215131146589</v>
+        <v>1391.215010400453</v>
       </c>
       <c r="E223" t="n">
-        <v>1407.739448960021</v>
+        <v>1407.739326779708</v>
       </c>
       <c r="F223" t="n">
         <v>3755373</v>
@@ -4921,16 +4921,16 @@
         <v>45260</v>
       </c>
       <c r="B225" t="n">
-        <v>1418.609497070312</v>
+        <v>1418.609375</v>
       </c>
       <c r="C225" t="n">
-        <v>1423.971385606189</v>
+        <v>1423.97126307449</v>
       </c>
       <c r="D225" t="n">
-        <v>1413.150143452962</v>
+        <v>1413.150021852423</v>
       </c>
       <c r="E225" t="n">
-        <v>1416.757184502377</v>
+        <v>1416.757062591454</v>
       </c>
       <c r="F225" t="n">
         <v>10120867</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>1427.578369140625</v>
+        <v>1427.578247070312</v>
       </c>
       <c r="C227" t="n">
-        <v>1434.938827072599</v>
+        <v>1434.938704372903</v>
       </c>
       <c r="D227" t="n">
-        <v>1412.90636432292</v>
+        <v>1412.906243507191</v>
       </c>
       <c r="E227" t="n">
-        <v>1423.77627907646</v>
+        <v>1423.776157331259</v>
       </c>
       <c r="F227" t="n">
         <v>5511948</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>1429.089477539062</v>
+        <v>1429.08935546875</v>
       </c>
       <c r="C230" t="n">
-        <v>1435.864906916047</v>
+        <v>1435.864784266989</v>
       </c>
       <c r="D230" t="n">
-        <v>1425.09245736685</v>
+        <v>1425.092335637956</v>
       </c>
       <c r="E230" t="n">
-        <v>1435.864906916047</v>
+        <v>1435.864784266989</v>
       </c>
       <c r="F230" t="n">
         <v>4424453</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>1453.705444335938</v>
+        <v>1453.705322265625</v>
       </c>
       <c r="C231" t="n">
-        <v>1457.166228140608</v>
+        <v>1457.166105779687</v>
       </c>
       <c r="D231" t="n">
-        <v>1429.430689641792</v>
+        <v>1429.430569609875</v>
       </c>
       <c r="E231" t="n">
-        <v>1433.476501924979</v>
+        <v>1433.476381553328</v>
       </c>
       <c r="F231" t="n">
         <v>6323433</v>
@@ -5061,16 +5061,16 @@
         <v>45271</v>
       </c>
       <c r="B232" t="n">
-        <v>1451.121948242188</v>
+        <v>1451.121826171875</v>
       </c>
       <c r="C232" t="n">
-        <v>1460.383391647159</v>
+        <v>1460.383268797762</v>
       </c>
       <c r="D232" t="n">
-        <v>1444.785171175628</v>
+        <v>1444.785049638373</v>
       </c>
       <c r="E232" t="n">
-        <v>1452.584281411393</v>
+        <v>1452.584159218068</v>
       </c>
       <c r="F232" t="n">
         <v>3862018</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>1438.984619140625</v>
+        <v>1438.984497070312</v>
       </c>
       <c r="C233" t="n">
-        <v>1452.584269904519</v>
+        <v>1452.584146680536</v>
       </c>
       <c r="D233" t="n">
-        <v>1430.795529656946</v>
+        <v>1430.795408281321</v>
       </c>
       <c r="E233" t="n">
-        <v>1440.398160257669</v>
+        <v>1440.398038067445</v>
       </c>
       <c r="F233" t="n">
         <v>6103494</v>
@@ -5101,16 +5101,16 @@
         <v>45273</v>
       </c>
       <c r="B234" t="n">
-        <v>1412.613891601562</v>
+        <v>1412.61376953125</v>
       </c>
       <c r="C234" t="n">
-        <v>1438.984681624413</v>
+        <v>1438.984557275282</v>
       </c>
       <c r="D234" t="n">
-        <v>1397.161927699395</v>
+        <v>1397.161806964356</v>
       </c>
       <c r="E234" t="n">
-        <v>1438.935889581716</v>
+        <v>1438.935765236801</v>
       </c>
       <c r="F234" t="n">
         <v>8549258</v>
@@ -5181,16 +5181,16 @@
         <v>45279</v>
       </c>
       <c r="B238" t="n">
-        <v>1519.169311523438</v>
+        <v>1519.169189453125</v>
       </c>
       <c r="C238" t="n">
-        <v>1534.42622651028</v>
+        <v>1534.426103214024</v>
       </c>
       <c r="D238" t="n">
-        <v>1504.497187028665</v>
+        <v>1504.497066137306</v>
       </c>
       <c r="E238" t="n">
-        <v>1530.67292831545</v>
+        <v>1530.672805320783</v>
       </c>
       <c r="F238" t="n">
         <v>4221721</v>
@@ -5201,16 +5201,16 @@
         <v>45280</v>
       </c>
       <c r="B239" t="n">
-        <v>1497.819091796875</v>
+        <v>1497.819213867188</v>
       </c>
       <c r="C239" t="n">
-        <v>1543.736327890833</v>
+        <v>1543.736453703341</v>
       </c>
       <c r="D239" t="n">
-        <v>1491.579780027139</v>
+        <v>1491.579901588956</v>
       </c>
       <c r="E239" t="n">
-        <v>1525.749678145437</v>
+        <v>1525.749802492056</v>
       </c>
       <c r="F239" t="n">
         <v>6592367</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>1523.653564453125</v>
+        <v>1523.653686523438</v>
       </c>
       <c r="C241" t="n">
-        <v>1526.675695605117</v>
+        <v>1526.675817917554</v>
       </c>
       <c r="D241" t="n">
-        <v>1484.75548174112</v>
+        <v>1484.755600695041</v>
       </c>
       <c r="E241" t="n">
-        <v>1496.405354038546</v>
+        <v>1496.405473925818</v>
       </c>
       <c r="F241" t="n">
         <v>6741060</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>1523.409912109375</v>
+        <v>1523.410034179688</v>
       </c>
       <c r="C244" t="n">
-        <v>1529.551639763341</v>
+        <v>1529.551762325788</v>
       </c>
       <c r="D244" t="n">
-        <v>1515.951989453513</v>
+        <v>1515.952110926224</v>
       </c>
       <c r="E244" t="n">
-        <v>1529.551639763341</v>
+        <v>1529.551762325788</v>
       </c>
       <c r="F244" t="n">
         <v>5702253</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>1504.155883789062</v>
+        <v>1504.156005859375</v>
       </c>
       <c r="C245" t="n">
-        <v>1520.290221280239</v>
+        <v>1520.29034465994</v>
       </c>
       <c r="D245" t="n">
-        <v>1501.328682598758</v>
+        <v>1501.328804439628</v>
       </c>
       <c r="E245" t="n">
-        <v>1502.352363393429</v>
+        <v>1502.352485317376</v>
       </c>
       <c r="F245" t="n">
         <v>4388990</v>
